--- a/StructureDefinition-ext-R5-NutritionOrder.sup.schedule.xlsx
+++ b/StructureDefinition-ext-R5-NutritionOrder.sup.schedule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>The time period and frequency at which the supplement should be given.  The supplement should be given for the combination of all schedules if more than one schedule is present.</t>
   </si>
   <si>
-    <t>Element `NutritionOrder.supplement.schedule.timing` is mapped to FHIR R4 structure `NutritionOrder`, but has no target element specified.</t>
+    <t>Element `NutritionOrder.supplement.schedule.timing` is will have a context of NutritionOrder.supplement.schedule based on following the parent source element upwards and mapping to `NutritionOrder`.</t>
   </si>
   <si>
     <t>Extension.extension:timing.id</t>
@@ -422,7 +422,7 @@
     <t>Indicates whether the supplement is only taken when needed within a specific dosing schedule.</t>
   </si>
   <si>
-    <t>Element `NutritionOrder.supplement.schedule.asNeeded` is mapped to FHIR R4 structure `NutritionOrder`, but has no target element specified.</t>
+    <t>Element `NutritionOrder.supplement.schedule.asNeeded` is will have a context of NutritionOrder.supplement.schedule based on following the parent source element upwards and mapping to `NutritionOrder`.</t>
   </si>
   <si>
     <t>Extension.extension:asNeeded.id</t>
@@ -453,7 +453,7 @@
     <t>Indicates whether the supplement is only taken based on a precondition for taking the supplement.</t>
   </si>
   <si>
-    <t>Element `NutritionOrder.supplement.schedule.asNeededFor` is mapped to FHIR R4 structure `NutritionOrder`, but has no target element specified.</t>
+    <t>Element `NutritionOrder.supplement.schedule.asNeededFor` is will have a context of NutritionOrder.supplement.schedule based on following the parent source element upwards and mapping to `NutritionOrder`.</t>
   </si>
   <si>
     <t>Extension.extension:asNeededFor.id</t>
@@ -828,7 +828,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="118.88671875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="171.328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
